--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Desc</t>
+    <t>#Desc</t>
   </si>
   <si>
     <t>NodeParams</t>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>巡逻</t>
+  </si>
+  <si>
+    <t>AI_Stand</t>
+  </si>
+  <si>
+    <t>发呆</t>
   </si>
 </sst>
 </file>
@@ -103,14 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +124,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -275,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,18 +308,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,52 +588,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,91 +651,85 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
     <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
@@ -1163,39 +1144,56 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>C4*100+D4</f>
         <v>101</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f>C5*100+D5</f>
         <v>102</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1208,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1279,40 +1277,41 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="6"/>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>C4*100+D4</f>
         <v>201</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
     <sheet name="AIConfig_2" sheetId="9" r:id="rId2"/>
+    <sheet name="机器人" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -42,7 +43,7 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>AIType</t>
   </si>
   <si>
     <t>#Desc</t>
@@ -60,7 +61,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>array,int#sep=,</t>
+    <t>list,int</t>
   </si>
   <si>
     <t>##</t>
@@ -72,7 +73,7 @@
     <t>此ai中的顺序</t>
   </si>
   <si>
-    <t>节点名字</t>
+    <t>AI节点类型</t>
   </si>
   <si>
     <t>描述</t>
@@ -81,19 +82,13 @@
     <t>节点参数</t>
   </si>
   <si>
-    <t>AI_Attack</t>
+    <t>自动释放技能</t>
   </si>
   <si>
     <t>攻击</t>
   </si>
   <si>
-    <t>AI_XunLuo</t>
-  </si>
-  <si>
     <t>巡逻</t>
-  </si>
-  <si>
-    <t>AI_Stand</t>
   </si>
   <si>
     <t>发呆</t>
@@ -719,16 +714,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -1058,20 +1060,20 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="11.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:7">
@@ -1111,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1144,56 +1146,56 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <f>C4*100+D4</f>
         <v>101</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <f>C5*100+D5</f>
         <v>102</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>103</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1207,22 +1209,22 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="4" width="11.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="4" width="11.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" s="7" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1248,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:8">
+    <row r="2" s="8" customFormat="1" ht="16.5" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1270,7 +1272,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="3" s="7" customFormat="1" ht="16.5" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1294,27 +1296,159 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10">
         <f>C4*100+D4</f>
         <v>201</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="10.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
+        <v>301</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
+        <v>302</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
-    <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="9" r:id="rId2"/>
-    <sheet name="机器人" sheetId="10" r:id="rId3"/>
+    <sheet name="普通小怪" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -37,19 +35,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>AIConfigId</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>AIType</t>
-  </si>
-  <si>
-    <t>#Desc</t>
-  </si>
-  <si>
-    <t>NodeParams</t>
+    <t>*AIInfos</t>
   </si>
   <si>
     <t>##type</t>
@@ -58,34 +44,22 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>list,int</t>
+    <t>map,int,AIType</t>
+  </si>
+  <si>
+    <t>$type</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>所属ai</t>
-  </si>
-  <si>
-    <t>此ai中的顺序</t>
-  </si>
-  <si>
-    <t>AI节点类型</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>节点参数</t>
+    <t>AI编号</t>
+  </si>
+  <si>
+    <t>AI节点信息</t>
   </si>
   <si>
     <t>自动释放技能</t>
-  </si>
-  <si>
-    <t>攻击</t>
   </si>
   <si>
     <t>巡逻</t>
@@ -263,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +569,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,16 +593,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -637,101 +617,111 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,397 +1048,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="11.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="22.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="7"/>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="10">
-        <f>C4*100+D4</f>
-        <v>101</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10">
-        <f>C5*100+D5</f>
-        <v>102</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10">
-        <v>103</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="4" width="11.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10">
-        <f>C4*100+D4</f>
-        <v>201</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="10.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="3">
-        <v>301</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="3">
-        <v>302</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通小怪" sheetId="6" r:id="rId1"/>
+    <sheet name="死亡矿井boss" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -694,7 +695,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,17 +708,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1050,17 +1063,17 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="3" width="22.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="3" width="22.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1109,31 +1122,31 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>101</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
         <v>102</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>103</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1147,4 +1160,99 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>201</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>202</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通小怪" sheetId="6" r:id="rId1"/>
@@ -695,7 +695,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,12 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1063,17 +1057,17 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="3" width="22.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="3" width="22.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1122,31 +1116,31 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>101</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10">
         <v>102</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>103</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1167,7 +1161,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1229,19 +1223,19 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>201</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>202</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通小怪" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -60,13 +60,13 @@
     <t>AI节点信息</t>
   </si>
   <si>
-    <t>自动释放技能</t>
-  </si>
-  <si>
     <t>巡逻</t>
   </si>
   <si>
     <t>发呆</t>
+  </si>
+  <si>
+    <t>自动释放技能</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1126,30 +1126,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:2">
       <c r="B6" s="10"/>
-      <c r="C6" s="10">
-        <v>102</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:3">
       <c r="B7" s="10"/>
-      <c r="C7" s="10">
-        <v>103</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1227,7 +1215,7 @@
         <v>201</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1236,7 +1224,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -63,10 +63,10 @@
     <t>巡逻</t>
   </si>
   <si>
-    <t>发呆</t>
+    <t>自动释放技能</t>
   </si>
   <si>
-    <t>自动释放技能</t>
+    <t>发呆</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1126,18 +1126,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4">
       <c r="B6" s="10"/>
+      <c r="C6" s="9">
+        <v>102</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1215,7 +1222,7 @@
         <v>201</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1224,7 +1231,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通小怪" sheetId="6" r:id="rId1"/>
-    <sheet name="死亡矿井boss" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -36,7 +35,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>*AIInfos</t>
+    <t>#Desc</t>
+  </si>
+  <si>
+    <t>AIInfo</t>
   </si>
   <si>
     <t>##type</t>
@@ -45,10 +47,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>map,int,AIType</t>
+    <t>string</t>
   </si>
   <si>
-    <t>$type</t>
+    <t>list,int#ref=AINodeConfigCategory</t>
   </si>
   <si>
     <t>##</t>
@@ -57,16 +59,10 @@
     <t>AI编号</t>
   </si>
   <si>
-    <t>AI节点信息</t>
+    <t>AI描述</t>
   </si>
   <si>
-    <t>巡逻</t>
-  </si>
-  <si>
-    <t>自动释放技能</t>
-  </si>
-  <si>
-    <t>发呆</t>
+    <t>AI节点</t>
   </si>
 </sst>
 </file>
@@ -695,7 +691,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,21 +702,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -1058,114 +1039,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="3" width="22.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>101</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9">
-        <v>102</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="22.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1176,72 +1057,65 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>201</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
+        <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
-        <v>202</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="2:3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>